--- a/Resources/2012/Basic_Percentile_2012.xlsx
+++ b/Resources/2012/Basic_Percentile_2012.xlsx
@@ -1762,7 +1762,7 @@
     <t>Jason Richardson</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Jarrett Jack</t>
@@ -1807,7 +1807,7 @@
     <t>Tony Parker</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Wesley Matthews</t>
@@ -1828,7 +1828,7 @@
     <t>Dorell Wright</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Kawhi Leonard</t>
@@ -2089,7 +2089,7 @@
     <t>Jerome Dyson</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Ramon Sessions</t>
@@ -2380,7 +2380,7 @@
     <t>Sundiata Gaines</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Anthony Morrow</t>
